--- a/data/trans_orig/P33b_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5BA5D97-4D3D-4A7D-BEC0-078ADF6073A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A2D9924-FA31-46F2-BEF8-13E0BF7D1AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{639B6795-37B8-4CEA-BA49-4A30F86AF520}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4F162685-A949-4595-9EFC-6D06D38FF2B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
   <si>
     <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>11,67%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
   </si>
   <si>
     <t>13,75%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
   </si>
   <si>
     <t>12,73%</t>
   </si>
   <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>88,33%</t>
   </si>
   <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
   </si>
   <si>
     <t>86,25%</t>
   </si>
   <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
   </si>
   <si>
     <t>87,27%</t>
   </si>
   <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>9,74%</t>
   </si>
   <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
   </si>
   <si>
     <t>15,31%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
   </si>
   <si>
     <t>90,26%</t>
   </si>
   <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
   </si>
   <si>
     <t>84,69%</t>
   </si>
   <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
   </si>
   <si>
     <t>87,39%</t>
   </si>
   <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>13,21%</t>
   </si>
   <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
   </si>
   <si>
     <t>22,76%</t>
   </si>
   <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
   </si>
   <si>
     <t>18,33%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
   </si>
   <si>
     <t>86,79%</t>
   </si>
   <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
   </si>
   <si>
     <t>77,24%</t>
   </si>
   <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
   </si>
   <si>
     <t>81,67%</t>
   </si>
   <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>16,72%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
   </si>
   <si>
     <t>19,67%</t>
   </si>
   <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
   </si>
   <si>
     <t>18,4%</t>
   </si>
   <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
   </si>
   <si>
     <t>83,28%</t>
   </si>
   <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>80,33%</t>
   </si>
   <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
   </si>
   <si>
     <t>81,6%</t>
   </si>
   <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,49 +308,49 @@
     <t>8,05%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
   </si>
   <si>
     <t>11,18%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
   </si>
   <si>
     <t>91,95%</t>
   </si>
   <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>88,82%</t>
   </si>
   <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -359,55 +359,55 @@
     <t>15,51%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
   </si>
   <si>
     <t>27,85%</t>
   </si>
   <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
   </si>
   <si>
     <t>21,66%</t>
   </si>
   <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
   </si>
   <si>
     <t>84,49%</t>
   </si>
   <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
   </si>
   <si>
     <t>72,15%</t>
   </si>
   <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
   </si>
   <si>
     <t>78,34%</t>
   </si>
   <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -416,55 +416,55 @@
     <t>13,06%</t>
   </si>
   <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
   </si>
   <si>
     <t>21,74%</t>
   </si>
   <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
   </si>
   <si>
     <t>17,94%</t>
   </si>
   <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
   </si>
   <si>
     <t>86,94%</t>
   </si>
   <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
   </si>
   <si>
     <t>78,26%</t>
   </si>
   <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
   </si>
   <si>
     <t>82,06%</t>
   </si>
   <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -473,97 +473,103 @@
     <t>19,37%</t>
   </si>
   <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
   </si>
   <si>
     <t>29,83%</t>
   </si>
   <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>26,94%</t>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
   </si>
   <si>
     <t>80,63%</t>
   </si>
   <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
   </si>
   <si>
     <t>70,17%</t>
   </si>
   <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
   </si>
   <si>
     <t>75,38%</t>
   </si>
   <si>
-    <t>73,06%</t>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
   </si>
   <si>
     <t>14,32%</t>
   </si>
   <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
   </si>
   <si>
     <t>18,25%</t>
   </si>
   <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
   </si>
   <si>
     <t>85,68%</t>
   </si>
   <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
   </si>
   <si>
     <t>81,75%</t>
   </si>
   <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -978,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96102A03-DB71-45CB-A968-FC1BD3B94B7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF09853-FDAE-455F-AA4C-C42F8312462C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2220,10 +2226,10 @@
         <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2238,13 +2244,13 @@
         <v>692938</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>686</v>
@@ -2253,13 +2259,13 @@
         <v>607481</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1257</v>
@@ -2268,13 +2274,13 @@
         <v>1300419</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>86</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,13 +2348,13 @@
         <v>484581</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>1309</v>
@@ -2360,10 +2366,10 @@
         <v>128</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M28" s="7">
         <v>1861</v>
@@ -2372,13 +2378,13 @@
         <v>1311541</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,13 +2399,13 @@
         <v>2899570</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>4052</v>
@@ -2411,10 +2417,10 @@
         <v>137</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>6875</v>
@@ -2423,13 +2429,13 @@
         <v>5876868</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,7 +2491,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R2-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A2D9924-FA31-46F2-BEF8-13E0BF7D1AC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C813674-BBB1-462C-98F3-796452A4679A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4F162685-A949-4595-9EFC-6D06D38FF2B9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BD3569B-9FAC-460C-AEB3-627207D5E703}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -984,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF09853-FDAE-455F-AA4C-C42F8312462C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE69876-B0CE-46B0-89FE-D32A68C9E399}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33b_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C813674-BBB1-462C-98F3-796452A4679A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEED4D9F-E5AC-432C-A980-2303DFAFF2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3BD3569B-9FAC-460C-AEB3-627207D5E703}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9454D7E7-7904-43D9-9BF6-D2F8B8315AA8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
   <si>
     <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -74,175 +74,175 @@
     <t>11,67%</t>
   </si>
   <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
   </si>
   <si>
     <t>13,75%</t>
   </si>
   <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
   </si>
   <si>
     <t>12,73%</t>
   </si>
   <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>88,33%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
     <t>10,55%</t>
   </si>
   <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
   </si>
   <si>
     <t>89,45%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>81,89%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
     <t>13,21%</t>
   </si>
   <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
   </si>
   <si>
     <t>22,76%</t>
   </si>
   <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
   </si>
   <si>
     <t>18,33%</t>
   </si>
   <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
   </si>
   <si>
     <t>86,79%</t>
   </si>
   <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
   </si>
   <si>
     <t>77,24%</t>
   </si>
   <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
   </si>
   <si>
     <t>81,67%</t>
   </si>
   <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>16,72%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
   </si>
   <si>
     <t>19,67%</t>
   </si>
   <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
   </si>
   <si>
     <t>18,4%</t>
   </si>
   <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
   </si>
   <si>
     <t>83,28%</t>
   </si>
   <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
   </si>
   <si>
     <t>80,33%</t>
   </si>
   <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
   </si>
   <si>
     <t>81,6%</t>
   </si>
   <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,49 +308,49 @@
     <t>8,05%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
   </si>
   <si>
     <t>11,18%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
   </si>
   <si>
     <t>91,95%</t>
   </si>
   <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
   </si>
   <si>
     <t>88,82%</t>
   </si>
   <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -359,55 +359,55 @@
     <t>15,51%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
   </si>
   <si>
     <t>27,85%</t>
   </si>
   <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
   </si>
   <si>
     <t>21,66%</t>
   </si>
   <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
   </si>
   <si>
     <t>84,49%</t>
   </si>
   <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
   </si>
   <si>
     <t>72,15%</t>
   </si>
   <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
+    <t>67,62%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
   </si>
   <si>
     <t>78,34%</t>
   </si>
   <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -416,55 +416,55 @@
     <t>13,06%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
   </si>
   <si>
     <t>21,74%</t>
   </si>
   <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
   </si>
   <si>
     <t>17,94%</t>
   </si>
   <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
   </si>
   <si>
     <t>86,94%</t>
   </si>
   <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
   </si>
   <si>
     <t>78,26%</t>
   </si>
   <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
   </si>
   <si>
     <t>82,06%</t>
   </si>
   <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -473,103 +473,97 @@
     <t>19,37%</t>
   </si>
   <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
   </si>
   <si>
     <t>29,83%</t>
   </si>
   <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
+    <t>26,94%</t>
   </si>
   <si>
     <t>80,63%</t>
   </si>
   <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
   </si>
   <si>
     <t>70,17%</t>
   </si>
   <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
   </si>
   <si>
     <t>75,38%</t>
   </si>
   <si>
-    <t>73,26%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
+    <t>73,06%</t>
   </si>
   <si>
     <t>14,32%</t>
   </si>
   <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
   </si>
   <si>
     <t>18,25%</t>
   </si>
   <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
   </si>
   <si>
     <t>85,68%</t>
   </si>
   <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>77,01%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
   </si>
   <si>
     <t>81,75%</t>
   </si>
   <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,7 +978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE69876-B0CE-46B0-89FE-D32A68C9E399}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6257008-B4DC-4CB4-90DC-E45721DECD0D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2226,10 +2220,10 @@
         <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,13 +2238,13 @@
         <v>692938</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>686</v>
@@ -2259,13 +2253,13 @@
         <v>607481</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1257</v>
@@ -2274,13 +2268,13 @@
         <v>1300419</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2342,13 @@
         <v>484581</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>1309</v>
@@ -2366,10 +2360,10 @@
         <v>128</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>1861</v>
@@ -2378,13 +2372,13 @@
         <v>1311541</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2393,13 @@
         <v>2899570</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>4052</v>
@@ -2417,10 +2411,10 @@
         <v>137</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>6875</v>
@@ -2429,13 +2423,13 @@
         <v>5876868</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,7 +2485,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33b_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33b_R2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEED4D9F-E5AC-432C-A980-2303DFAFF2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B124BC47-F875-434F-BE47-B689A03C46F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9454D7E7-7904-43D9-9BF6-D2F8B8315AA8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2260F781-36A9-4FC4-9066-96589518A1A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
   <si>
     <t>Población que se despierta durante la noche y tiene dificultad en volver a dormirse en 2023 (Tasa respuesta: 99,92%)</t>
   </si>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,436 +134,442 @@
     <t>Cadiz</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
   </si>
   <si>
     <t>12,61%</t>
   </si>
   <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
   </si>
   <si>
     <t>87,39%</t>
   </si>
   <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>81,11%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -978,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6257008-B4DC-4CB4-90DC-E45721DECD0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416C1929-AAA2-4364-9A40-B6EF2825266D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1099,7 +1105,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="7">
-        <v>30368</v>
+        <v>34544</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1114,7 +1120,7 @@
         <v>84</v>
       </c>
       <c r="I4" s="7">
-        <v>37331</v>
+        <v>38565</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1129,7 +1135,7 @@
         <v>123</v>
       </c>
       <c r="N4" s="7">
-        <v>67699</v>
+        <v>73109</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1150,7 +1156,7 @@
         <v>292</v>
       </c>
       <c r="D5" s="7">
-        <v>229930</v>
+        <v>276899</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1165,7 +1171,7 @@
         <v>454</v>
       </c>
       <c r="I5" s="7">
-        <v>234072</v>
+        <v>251070</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1180,7 +1186,7 @@
         <v>746</v>
       </c>
       <c r="N5" s="7">
-        <v>464001</v>
+        <v>527968</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1201,7 +1207,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1216,7 +1222,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1231,7 +1237,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1254,7 +1260,7 @@
         <v>39</v>
       </c>
       <c r="D7" s="7">
-        <v>50558</v>
+        <v>50040</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1269,31 +1275,31 @@
         <v>118</v>
       </c>
       <c r="I7" s="7">
-        <v>84898</v>
+        <v>78334</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>157</v>
       </c>
       <c r="N7" s="7">
-        <v>135456</v>
+        <v>128373</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1305,46 +1311,46 @@
         <v>343</v>
       </c>
       <c r="D8" s="7">
-        <v>468739</v>
+        <v>468350</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>599</v>
       </c>
       <c r="I8" s="7">
-        <v>469668</v>
+        <v>436635</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>942</v>
       </c>
       <c r="N8" s="7">
-        <v>938408</v>
+        <v>904986</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1356,7 +1362,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1371,7 +1377,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1386,7 +1392,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1400,7 +1406,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1409,46 +1415,46 @@
         <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>42572</v>
+        <v>41141</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>133</v>
       </c>
       <c r="I10" s="7">
-        <v>84826</v>
+        <v>78902</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>186</v>
       </c>
       <c r="N10" s="7">
-        <v>127398</v>
+        <v>120043</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1460,46 +1466,46 @@
         <v>307</v>
       </c>
       <c r="D11" s="7">
-        <v>279668</v>
+        <v>274909</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>402</v>
       </c>
       <c r="I11" s="7">
-        <v>287914</v>
+        <v>269723</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>709</v>
       </c>
       <c r="N11" s="7">
-        <v>567582</v>
+        <v>544632</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1511,7 +1517,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1526,7 +1532,7 @@
         <v>535</v>
       </c>
       <c r="I12" s="7">
-        <v>372740</v>
+        <v>348625</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1541,7 +1547,7 @@
         <v>895</v>
       </c>
       <c r="N12" s="7">
-        <v>694980</v>
+        <v>664675</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1555,7 +1561,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1564,46 +1570,46 @@
         <v>53</v>
       </c>
       <c r="D13" s="7">
-        <v>53892</v>
+        <v>51477</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>132</v>
       </c>
       <c r="I13" s="7">
-        <v>84289</v>
+        <v>77470</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>185</v>
       </c>
       <c r="N13" s="7">
-        <v>138181</v>
+        <v>128947</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1615,46 +1621,46 @@
         <v>239</v>
       </c>
       <c r="D14" s="7">
-        <v>268348</v>
+        <v>261080</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>467</v>
       </c>
       <c r="I14" s="7">
-        <v>344267</v>
+        <v>398248</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>706</v>
       </c>
       <c r="N14" s="7">
-        <v>612615</v>
+        <v>659327</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1666,7 +1672,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1681,7 +1687,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1696,7 +1702,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1710,7 +1716,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1719,46 +1725,46 @@
         <v>25</v>
       </c>
       <c r="D16" s="7">
-        <v>15836</v>
+        <v>14324</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
       </c>
       <c r="I16" s="7">
-        <v>25871</v>
+        <v>23559</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>85</v>
       </c>
       <c r="N16" s="7">
-        <v>41707</v>
+        <v>37883</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1770,40 +1776,40 @@
         <v>254</v>
       </c>
       <c r="D17" s="7">
-        <v>180912</v>
+        <v>164418</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>431</v>
       </c>
       <c r="I17" s="7">
-        <v>205625</v>
+        <v>184715</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>685</v>
       </c>
       <c r="N17" s="7">
-        <v>386537</v>
+        <v>349133</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>103</v>
@@ -1821,7 +1827,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1836,7 +1842,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1851,7 +1857,7 @@
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1874,46 +1880,46 @@
         <v>64</v>
       </c>
       <c r="D19" s="7">
-        <v>42993</v>
+        <v>41124</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>144</v>
       </c>
       <c r="I19" s="7">
-        <v>76749</v>
+        <v>71381</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>208</v>
       </c>
       <c r="N19" s="7">
-        <v>119742</v>
+        <v>112505</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1925,46 +1931,46 @@
         <v>307</v>
       </c>
       <c r="D20" s="7">
-        <v>234230</v>
+        <v>228512</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
         <v>316</v>
       </c>
       <c r="I20" s="7">
-        <v>198873</v>
+        <v>185675</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>623</v>
       </c>
       <c r="N20" s="7">
-        <v>433103</v>
+        <v>414187</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1976,7 +1982,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -1991,7 +1997,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2006,7 +2012,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2020,7 +2026,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2029,46 +2035,46 @@
         <v>88</v>
       </c>
       <c r="D22" s="7">
-        <v>81872</v>
+        <v>78606</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>263</v>
       </c>
       <c r="I22" s="7">
-        <v>174807</v>
+        <v>162217</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>351</v>
       </c>
       <c r="N22" s="7">
-        <v>256678</v>
+        <v>240822</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,46 +2086,46 @@
         <v>510</v>
       </c>
       <c r="D23" s="7">
-        <v>544805</v>
+        <v>544644</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>697</v>
       </c>
       <c r="I23" s="7">
-        <v>629396</v>
+        <v>687048</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1207</v>
       </c>
       <c r="N23" s="7">
-        <v>1174202</v>
+        <v>1231692</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,7 +2137,7 @@
         <v>598</v>
       </c>
       <c r="D24" s="7">
-        <v>626677</v>
+        <v>623250</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2146,7 +2152,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2161,7 +2167,7 @@
         <v>1558</v>
       </c>
       <c r="N24" s="7">
-        <v>1430880</v>
+        <v>1472514</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2175,7 +2181,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2184,46 +2190,46 @@
         <v>191</v>
       </c>
       <c r="D25" s="7">
-        <v>166490</v>
+        <v>142540</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>375</v>
       </c>
       <c r="I25" s="7">
-        <v>258191</v>
+        <v>217498</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>566</v>
       </c>
       <c r="N25" s="7">
-        <v>424681</v>
+        <v>360038</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,46 +2241,46 @@
         <v>571</v>
       </c>
       <c r="D26" s="7">
-        <v>692938</v>
+        <v>786180</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H26" s="7">
         <v>686</v>
       </c>
       <c r="I26" s="7">
-        <v>607481</v>
+        <v>497894</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M26" s="7">
         <v>1257</v>
       </c>
       <c r="N26" s="7">
-        <v>1300419</v>
+        <v>1284074</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,7 +2292,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2301,7 +2307,7 @@
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2316,7 +2322,7 @@
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -2339,7 +2345,7 @@
         <v>552</v>
       </c>
       <c r="D28" s="7">
-        <v>484581</v>
+        <v>453796</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>160</v>
@@ -2354,31 +2360,31 @@
         <v>1309</v>
       </c>
       <c r="I28" s="7">
-        <v>826960</v>
+        <v>747925</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>1861</v>
       </c>
       <c r="N28" s="7">
-        <v>1311541</v>
+        <v>1201720</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,46 +2396,46 @@
         <v>2823</v>
       </c>
       <c r="D29" s="7">
-        <v>2899570</v>
+        <v>3004991</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>4052</v>
       </c>
       <c r="I29" s="7">
-        <v>2977298</v>
+        <v>2911007</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>6875</v>
       </c>
       <c r="N29" s="7">
-        <v>5876868</v>
+        <v>5915999</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,7 +2447,7 @@
         <v>3375</v>
       </c>
       <c r="D30" s="7">
-        <v>3384151</v>
+        <v>3458787</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2456,7 +2462,7 @@
         <v>5361</v>
       </c>
       <c r="I30" s="7">
-        <v>3804258</v>
+        <v>3658932</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -2471,7 +2477,7 @@
         <v>8736</v>
       </c>
       <c r="N30" s="7">
-        <v>7188409</v>
+        <v>7117719</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2485,7 +2491,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
